--- a/template/productp3.xlsx
+++ b/template/productp3.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{F524DB95-35C4-4F61-97C5-6986BD484151}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -24,53 +23,56 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>布料/辅料应用表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制单号：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>款号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布料/輔料名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用量/每件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂購</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P3/3</t>
-  </si>
-  <si>
-    <t>制单号：</t>
-  </si>
-  <si>
-    <t>款号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>客户</t>
-  </si>
-  <si>
-    <t>分類</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  布料/輔料名稱</t>
-  </si>
-  <si>
-    <t>規格</t>
-  </si>
-  <si>
-    <t>用量/每件</t>
-  </si>
-  <si>
-    <t>訂購</t>
-  </si>
-  <si>
-    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -90,21 +92,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -114,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -137,35 +124,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -183,51 +201,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="Host Control  1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="723900" y="4184650"/>
-          <a:ext cx="1543050" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,289 +489,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="50.75" customWidth="1"/>
-    <col min="4" max="6" width="18" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>